--- a/data/ENVS2018 kioloa bird data 2024.xlsx
+++ b/data/ENVS2018 kioloa bird data 2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3a69dc1a79d235a/2 PhD/GIT/ENVS2018-environmental-science-field-school/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2479" documentId="8_{20EBD9CF-D181-4E14-BBF4-7B52DF8BE6A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{66871503-B438-4E9C-A61C-AF9904618D82}"/>
+  <xr:revisionPtr revIDLastSave="2480" documentId="8_{20EBD9CF-D181-4E14-BBF4-7B52DF8BE6A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{992098FC-65B4-45B8-BE91-7088344E4C2B}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="30960" yWindow="-585" windowWidth="21600" windowHeight="11175" xr2:uid="{B2517517-614B-4117-BC66-CC2A7989E8B9}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{B2517517-614B-4117-BC66-CC2A7989E8B9}"/>
   </bookViews>
   <sheets>
     <sheet name="Expert bird counts" sheetId="1" r:id="rId1"/>
@@ -647,9 +647,6 @@
     <t>Platycercus eximius</t>
   </si>
   <si>
-    <t>Repeat</t>
-  </si>
-  <si>
     <t>Tawny Grassbird</t>
   </si>
   <si>
@@ -763,6 +760,9 @@
   <si>
     <t>Bassian Thrush</t>
   </si>
+  <si>
+    <t>Visit</t>
+  </si>
 </sst>
 </file>
 
@@ -874,6 +874,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1177,7 +1181,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F35" sqref="F35"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1196,7 +1200,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>202</v>
+        <v>240</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -1480,7 +1484,7 @@
         <v>32</v>
       </c>
       <c r="F11" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>26</v>
@@ -5166,7 +5170,7 @@
         <v>195</v>
       </c>
       <c r="F150" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G150" s="3" t="s">
         <v>156</v>
@@ -5936,7 +5940,7 @@
         <v>195</v>
       </c>
       <c r="F178" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G178" s="3" t="s">
         <v>156</v>
@@ -6104,7 +6108,7 @@
         <v>195</v>
       </c>
       <c r="F184" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G184" s="3" t="s">
         <v>196</v>
@@ -6440,7 +6444,7 @@
         <v>195</v>
       </c>
       <c r="F196" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G196" s="3" t="s">
         <v>196</v>
@@ -8002,7 +8006,7 @@
         <v>184</v>
       </c>
       <c r="F254" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G254" s="3" t="s">
         <v>197</v>
@@ -10281,7 +10285,7 @@
         <v>199</v>
       </c>
       <c r="G339" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H339">
         <v>2</v>
@@ -11930,7 +11934,7 @@
         <v>198</v>
       </c>
       <c r="G400" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I400">
         <v>1</v>
@@ -17326,10 +17330,10 @@
         <v>28</v>
       </c>
       <c r="F602" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G602" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K602">
         <v>1</v>
@@ -17543,7 +17547,7 @@
         <v>198</v>
       </c>
       <c r="G610" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I610">
         <v>2</v>
@@ -17991,10 +17995,10 @@
         <v>28</v>
       </c>
       <c r="F627" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G627" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J627">
         <v>1</v>
@@ -18202,7 +18206,7 @@
         <v>198</v>
       </c>
       <c r="G635" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K635">
         <v>2</v>
@@ -19134,10 +19138,10 @@
         <v>28</v>
       </c>
       <c r="F669" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G669" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="J669">
         <v>2</v>
@@ -20201,10 +20205,10 @@
         <v>194</v>
       </c>
       <c r="F709" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G709" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J709">
         <v>1</v>
@@ -20513,10 +20517,10 @@
         <v>194</v>
       </c>
       <c r="F721" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G721" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="K721">
         <v>1</v>
@@ -23780,7 +23784,7 @@
         <v>199</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C5" t="s">
         <v>168</v>
@@ -23808,15 +23812,15 @@
         <v>168</v>
       </c>
       <c r="D7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C8" t="s">
         <v>170</v>
@@ -23932,7 +23936,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>156</v>
@@ -23968,10 +23972,10 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
+        <v>211</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>212</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>213</v>
       </c>
       <c r="C21" t="s">
         <v>168</v>
@@ -23979,7 +23983,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>196</v>
@@ -24067,13 +24071,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D30" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
@@ -24089,7 +24093,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>197</v>
@@ -24230,24 +24234,24 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
+        <v>215</v>
+      </c>
+      <c r="B44" s="3" t="s">
         <v>216</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>217</v>
       </c>
       <c r="C44" t="s">
         <v>168</v>
       </c>
       <c r="D44" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C45" t="s">
         <v>172</v>
@@ -24294,24 +24298,24 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
+        <v>218</v>
+      </c>
+      <c r="B49" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="B49" s="3" t="s">
-        <v>220</v>
-      </c>
       <c r="D49" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
+        <v>220</v>
+      </c>
+      <c r="B50" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="B50" s="3" t="s">
-        <v>222</v>
-      </c>
       <c r="D50" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
@@ -24366,10 +24370,10 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
+        <v>222</v>
+      </c>
+      <c r="B55" s="3" t="s">
         <v>223</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>224</v>
       </c>
       <c r="C55" t="s">
         <v>177</v>
@@ -24377,10 +24381,10 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C56" t="s">
         <v>168</v>
@@ -24468,7 +24472,7 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>26</v>
@@ -24589,10 +24593,10 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
+        <v>224</v>
+      </c>
+      <c r="B75" s="3" t="s">
         <v>225</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>226</v>
       </c>
       <c r="C75" t="s">
         <v>174</v>
@@ -24622,10 +24626,10 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
+        <v>226</v>
+      </c>
+      <c r="B78" s="3" t="s">
         <v>227</v>
-      </c>
-      <c r="B78" s="3" t="s">
-        <v>228</v>
       </c>
       <c r="C78" t="s">
         <v>169</v>
@@ -24644,13 +24648,13 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
+        <v>228</v>
+      </c>
+      <c r="B80" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="B80" s="3" t="s">
-        <v>230</v>
-      </c>
       <c r="D80" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.35">
@@ -24688,10 +24692,10 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
+        <v>230</v>
+      </c>
+      <c r="B84" s="3" t="s">
         <v>231</v>
-      </c>
-      <c r="B84" s="3" t="s">
-        <v>232</v>
       </c>
       <c r="C84" t="s">
         <v>168</v>
@@ -24735,13 +24739,13 @@
         <v>198</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C88" t="s">
         <v>168</v>
       </c>
       <c r="D88" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.35">
@@ -24779,10 +24783,10 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C92" t="s">
         <v>168</v>
